--- a/biology/Zoologie/Conus_portobeloensis/Conus_portobeloensis.xlsx
+++ b/biology/Zoologie/Conus_portobeloensis/Conus_portobeloensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus portobeloensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Panama.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans le sud du Honduras, du Nicaragua, du Costa Rica et du Panama. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans le sud du Honduras, du Nicaragua, du Costa Rica et du Panama. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_portobeloensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_portobeloensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus portobeloensis a été décrite pour la première fois en 1990 par le malacologiste américain Edward James Petuch (d)[2] dans « The Nautilus »[3],[4].
-Synonymes
-Conus (Dauciconus) portobeloensis Petuch, 1990 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus portobeloensis a été décrite pour la première fois en 1990 par le malacologiste américain Edward James Petuch (d) dans « The Nautilus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_portobeloensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_portobeloensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) portobeloensis Petuch, 1990 · appellation alternative
 Dauciconus portobeloensis (Petuch, 1990) · non accepté
 Gradiconus portobeloensis (Petuch, 1990) · non accepté</t>
         </is>
